--- a/output/metadata_recode.xlsx
+++ b/output/metadata_recode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>categoria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>variables_fuente</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pregunta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>situacion</t>
         </is>
       </c>
     </row>
@@ -375,153 +390,1325 @@
           <t>emper_transporte</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>emper_p_inseg_lugares_1; emper_p_inseg_lugares_2; emper_p_inseg_lugares_3; emper_p_inseg_lugares_4; emper_p_inseg_lugares_5; emper_p_inseg_lugares_6</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trasladándose </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>emper_recreacion</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>emper_p_inseg_lugares_7; emper_p_inseg_lugares_10; emper_p_inseg_lugares_12</t>
+          <t>emper_transporte</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Esperando transporte público</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>emper_barrio</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>emper_p_inseg_oscuro_1; emper_p_inseg_dia_1</t>
+          <t>emper_transporte</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trasladándose en buses o micros de transporte público</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>emper_casa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>emper_p_inseg_oscuro_2; emper_p_inseg_dia_2</t>
+          <t>emper_transporte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trasladándose en taxis o colectivos</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>perper_delito</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>perper_p_expos_delito; c("perper_p_delito_pronostico_1", "perper_p_delito_pronostico_3", "perper_p_delito_pronostico_4", "perper_p_delito_pronostico_6", "perper_p_delito_pronostico_8", "perper_p_delito_pronostico_9", "perper_p_delito_pronostico_10", "perper_p_delito_pronostico_11"); c("perper_p_delito_pronostico_2", "perper_p_delito_pronostico_5", "perper_p_delito_pronostico_7"); perper_p_expos_delito; c("perper_p_delito_pronostico_77", "perper_p_delito_pronostico_88", "perper_p_delito_pronostico_99")</t>
+          <t>emper_transporte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trasladándose en vehículos de aplicación, tales como Uber, Cabify, Didi o similar</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pergen_pais</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pergen_p_aumento_pais</t>
+          <t>emper_transporte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trasladándose en Metro, Biotrén, Merval o Metrotren</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pergen_comuna</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pergen_p_aumento_com</t>
+          <t>emper_recreacion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En un restaurante, bar, pub, café, discoteque u otro lugar de recreación</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pergen_barrio</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>pergen_p_aumento_barrio</t>
+          <t>emper_recreacion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En centros comerciales o malls</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>comper_vida_cotidiana</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>comper_p_mod_actividades_1; comper_p_mod_actividades_2; comper_p_mod_actividades_8</t>
+          <t>emper_recreacion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_lugares_12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, según su experiencia, ¿qué tan seguro/a se siente...</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En plazas o parques de su barrio</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>comper_transporte</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>comper_p_mod_actividades_4; comper_p_mod_actividades_5; comper_p_mod_actividades_6; comper_p_mod_actividades_13</t>
+          <t>emper_barrio</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_oscuro_1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses ¿qué tan seguro/a se siente en las siguientes situaciones</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Caminando solo/a por su barrio cuando ya está oscuro</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>comper_gasto_medidas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>comper_costos_medidas</t>
+          <t>emper_barrio</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_dia_1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses ¿qué tan seguro/a se siente en las siguientes situaciones</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Caminando solo/a por su barrio durante el día</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>comgen_medidas_per</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>comgen_medidas_cerco; comgen_medidas_rejas; comgen_medidas_proteccion</t>
+          <t>emper_casa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_oscuro_2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses ¿qué tan seguro/a se siente en las siguientes situaciones</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solo/a </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>emper_casa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>emper_p_inseg_dia_2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses ¿qué tan seguro/a se siente en las siguientes situaciones</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solo/a </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>perper_p_expos_delito</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Considerando el tipo de actividades que realiza o los lugares por los que transita habitualmente, ¿cree usted que será víctima de algún delito en los próximos doce meses</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robo </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Robo o hurto de algún objeto dejado dentro del vehículo o parte de él</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vandalismo o daño a su vivienda o vehículo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hurto</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Amenazas o extorsión</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Delitos económicos como fraude o estafa</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Delitos cibernéticos</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_11</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Acoso callejero o sexual</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Robo o hurto de su vehículo o portonazo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Robo o asalto, como robo con violencia, cogoteo, robo por sorpresa o lanzazo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Agresiones físicas o lesiones</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>perper_p_expos_delito</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Considerando el tipo de actividades que realiza o los lugares por los que transita habitualmente, ¿cree usted que será víctima de algún delito en los próximos doce meses</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_77</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Otros delitos</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_88</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No sabe</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>perper_delito</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>perper_p_delito_pronostico_99</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>¿De qué delito cree usted que será víctima en los próximos doce meses</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No responde</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pergen_pais</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>pergen_p_aumento_pais</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pensando en la delincuencia, usted diría que durante los últimos doce meses, la delincuencia </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PAÍS...</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pergen_comuna</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>pergen_p_aumento_com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pensando en la delincuencia, usted diría que durante los últimos doce meses, la delincuencia </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>COMUNA...</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pergen_barrio</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>pergen_p_aumento_barrio</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pensando en la delincuencia, usted diría que durante los últimos doce meses, la delincuencia </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BARRIO...</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>comper_vida_cotidiana</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Caminar solo/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>comper_vida_cotidiana</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Realizar actividades al aire libre</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>comper_vida_cotidiana</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_8</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Salir de noche</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>comper_transporte</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tomar micros o buses</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>comper_transporte</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Tomar taxis o colectivos</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>comper_transporte</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tomar o usar Uber, Cabify, Didi o similares</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>comper_transporte</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>comper_p_mod_actividades_13</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Durante los últimos doce meses, por temor a ser víctima de algún delito como robo, asalto, agresión u otro, ¿ha dejado de hacer alguna de las siguientes actividades</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Manejar vehículos, motos y/o estacionar fuera de la vivienda</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>comper_gasto_medidas</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>comper_costos_medidas</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>En los últimos doce meses ¿cuánto dinero en total ha gastado su hogar en medidas de seguridad</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Considerar lo invertido en seguridad de su vivienda, automóvil y en conjunto a las personas de su barrio</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>comgen_medidas_per</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>comgen_medidas_na</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indique él o los elementos de seguridad que dispone su vivienda o </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No tenemos ninguna medida de seguridad</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>comgen_medidas_per</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>comgen_medidas_ns</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indique él o los elementos de seguridad que dispone su vivienda o </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No sabe</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>comgen_medidas_per</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>comgen_medidas_nr</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indique él o los elementos de seguridad que dispone su vivienda o </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No responde</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>comgen_medidas_per</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>comgen_medidas_cerco</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indique él o los elementos de seguridad que dispone su vivienda o </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cerco eléctrico en reja o muro perimetral de la propiedad</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>comgen_medidas_per</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>comgen_medidas_rejas</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indique él o los elementos de seguridad que dispone su vivienda o </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Rejas u otro tipo de protecciones en puertas y ventanas</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>comgen_medidas_per</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>comgen_medidas_proteccion</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indique él o los elementos de seguridad que dispone su vivienda o </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Protecciones no eléctricas en reja o muro de la propiedad</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>comgen_medidas_com</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>comgen_vecinos_medidas_vigilancia; comgen_vecinos_medidas_al_comunit; comgen_vecinos_medidas_coord_pol; comgen_vecinos_medidas_coord_mun; comgen_vecinos_medidas_televig</t>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_na</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No tenemos ninguna medida de seguridad</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_ns</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No sabe</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_nr</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No responde</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_vigilancia</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Tenemos un sistema de vigilancia entre las personas del barrio</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_al_comunit</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tenemos un sistema de alarma comunitaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_coord_pol</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Hemos hablado con las policías para coordinar medidas de seguridad</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_coord_mun</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Hemos hablado con agentes del municipio para coordinar medidas de seguridad</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>comgen_medidas_com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>comgen_vecinos_medidas_televig</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>¿Cuál/es de las siguientes medidas ha adoptado en conjunto a las personas de su barrio / cuadra / block para sentirse más seguros</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tenemos un sistema de cámaras de televigilancia</t>
         </is>
       </c>
     </row>

--- a/output/metadata_recode.xlsx
+++ b/output/metadata_recode.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_3</t>
+          <t>perper_p_delito_pronostico_2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Robo o hurto de algún objeto dejado dentro del vehículo o parte de él</t>
+          <t>Robo o hurto de su vehículo o portonazo</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_4</t>
+          <t>perper_p_delito_pronostico_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vandalismo o daño a su vivienda o vehículo</t>
+          <t>Robo o hurto de algún objeto dejado dentro del vehículo o parte de él</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_6</t>
+          <t>perper_p_delito_pronostico_4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hurto</t>
+          <t>Vandalismo o daño a su vivienda o vehículo</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_8</t>
+          <t>perper_p_delito_pronostico_6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Amenazas o extorsión</t>
+          <t>Hurto</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_2</t>
+          <t>perper_p_delito_pronostico_5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Robo o hurto de su vehículo o portonazo</t>
+          <t>Robo o asalto, como robo con violencia, cogoteo, robo por sorpresa o lanzazo</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_5</t>
+          <t>perper_p_delito_pronostico_7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Robo o asalto, como robo con violencia, cogoteo, robo por sorpresa o lanzazo</t>
+          <t>Agresiones físicas o lesiones</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>perper_p_delito_pronostico_7</t>
+          <t>perper_p_delito_pronostico_8</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Agresiones físicas o lesiones</t>
+          <t>Amenazas o extorsión</t>
         </is>
       </c>
     </row>

--- a/output/metadata_recode.xlsx
+++ b/output/metadata_recode.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">situacion</t>
   </si>
   <si>
-    <t xml:space="preserve">emper_espacio_publico_pct</t>
+    <t xml:space="preserve">emper_ep_pct</t>
   </si>
   <si>
     <t xml:space="preserve">emper_p_inseg_lugares_1</t>
@@ -844,7 +844,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="21.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="33.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="174.71" hidden="0" customWidth="1"/>

--- a/output/metadata_recode.xlsx
+++ b/output/metadata_recode.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">variable_recodificada</t>
   </si>
@@ -119,18 +119,6 @@
     <t xml:space="preserve">Caminando solo/a por su barrio durante el día</t>
   </si>
   <si>
-    <t xml:space="preserve">emper_p_inseg_lugares_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En plazas o parques de su barrio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emper_p_inseg_lugares_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En comercios de su barrio</t>
-  </si>
-  <si>
     <t xml:space="preserve">emper_casa_pct</t>
   </si>
   <si>
@@ -371,7 +359,7 @@
     <t xml:space="preserve">Manejar vehículos, motos y/o estacionar fuera de la vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">comper_gasto_medidas</t>
+    <t xml:space="preserve">comper_gasto</t>
   </si>
   <si>
     <t xml:space="preserve">comper_costos_medidas</t>
@@ -1049,109 +1037,113 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14"/>
-      <c r="C14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -1159,16 +1151,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -1176,16 +1168,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -1193,16 +1185,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -1210,16 +1202,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>59</v>
@@ -1227,16 +1219,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -1244,50 +1236,50 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
         <v>68</v>
@@ -1295,33 +1287,33 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
@@ -1329,127 +1321,123 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="A36" t="s">
         <v>87</v>
       </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
+      <c r="E37" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
         <v>94</v>
@@ -1457,14 +1445,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
         <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
         <v>96</v>
@@ -1472,14 +1460,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
         <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
         <v>98</v>
@@ -1487,14 +1475,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
         <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>100</v>
@@ -1502,14 +1490,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
         <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
         <v>102</v>
@@ -1517,14 +1505,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
         <v>104</v>
@@ -1532,14 +1520,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
         <v>106</v>
@@ -1547,14 +1535,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
         <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>108</v>
@@ -1562,14 +1550,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>110</v>
@@ -1577,89 +1565,89 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48" t="s">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49" t="s">
+      <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>118</v>
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B51"/>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>122</v>
+      <c r="E51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
         <v>126</v>
@@ -1667,14 +1655,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
         <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
         <v>128</v>
@@ -1682,14 +1670,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
         <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
         <v>130</v>
@@ -1697,14 +1685,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="s">
         <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
         <v>132</v>
@@ -1712,74 +1700,74 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
         <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57" t="s">
+      <c r="A57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
         <v>137</v>
       </c>
-      <c r="D58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>140</v>
+      <c r="E59" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B60"/>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
         <v>144</v>
@@ -1787,14 +1775,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
         <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
         <v>146</v>
@@ -1802,14 +1790,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="s">
         <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
         <v>148</v>
@@ -1817,14 +1805,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
         <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
         <v>150</v>
@@ -1832,47 +1820,17 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
         <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
